--- a/data/processed/clean_data.xlsx
+++ b/data/processed/clean_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>country_index</t>
   </si>
@@ -109,82 +109,19 @@
     <t>urban_population_growth_pct</t>
   </si>
   <si>
-    <t>m_income_group</t>
-  </si>
-  <si>
-    <t>m_access_to_electricity_pop</t>
-  </si>
-  <si>
-    <t>m_access_to_electricity_rural</t>
-  </si>
-  <si>
-    <t>m_access_to_electricity_urban</t>
-  </si>
-  <si>
-    <t>m_CO2_emissions_per_capita)</t>
-  </si>
-  <si>
     <t>m_compulsory_edu_yrs</t>
   </si>
   <si>
-    <t>m_pct_female_employment</t>
-  </si>
-  <si>
-    <t>m_pct_male_employment</t>
-  </si>
-  <si>
-    <t>m_pct_agriculture_employment</t>
-  </si>
-  <si>
-    <t>m_pct_industry_employment</t>
-  </si>
-  <si>
-    <t>m_pct_services_employment</t>
-  </si>
-  <si>
-    <t>m_exports_pct_gdp</t>
-  </si>
-  <si>
-    <t>m_fdi_pct_gdp</t>
-  </si>
-  <si>
-    <t>m_gdp_usd</t>
-  </si>
-  <si>
-    <t>m_gdp_growth_pct</t>
-  </si>
-  <si>
     <t>m_incidence_hiv</t>
   </si>
   <si>
-    <t>m_internet_usage_pct</t>
-  </si>
-  <si>
     <t>m_homicides_per_100k</t>
   </si>
   <si>
     <t>m_adult_literacy_pct</t>
   </si>
   <si>
-    <t>m_child_mortality_per_1k</t>
-  </si>
-  <si>
-    <t>m_avg_air_pollution</t>
-  </si>
-  <si>
-    <t>m_women_in_parliament</t>
-  </si>
-  <si>
     <t>m_tax_revenue_pct_gdp</t>
-  </si>
-  <si>
-    <t>m_unemployment_pct</t>
-  </si>
-  <si>
-    <t>m_urban_population_pct</t>
-  </si>
-  <si>
-    <t>m_urban_population_growth_pct</t>
   </si>
   <si>
     <t>Central Africa 1</t>
@@ -638,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF15"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,71 +690,8 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -825,16 +699,16 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -915,7 +789,7 @@
         <v>5.480228006</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -927,73 +801,10 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>1</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1001,16 +812,16 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G3">
         <v>87.87672424</v>
@@ -1094,82 +905,19 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1177,16 +925,16 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>72.91772460999999</v>
@@ -1239,6 +987,9 @@
       <c r="W4">
         <v>6.98</v>
       </c>
+      <c r="X4">
+        <v>7.70322986825722</v>
+      </c>
       <c r="Y4">
         <v>77.8</v>
       </c>
@@ -1270,79 +1021,16 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1350,16 +1038,16 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>13.5</v>
@@ -1412,6 +1100,9 @@
       <c r="W5">
         <v>3</v>
       </c>
+      <c r="X5">
+        <v>13.5463883986769</v>
+      </c>
       <c r="Y5">
         <v>77</v>
       </c>
@@ -1443,79 +1134,16 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>1</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1523,16 +1151,16 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>51.86239243</v>
@@ -1585,6 +1213,9 @@
       <c r="W6">
         <v>7.11</v>
       </c>
+      <c r="X6">
+        <v>9.322451410047311</v>
+      </c>
       <c r="Y6">
         <v>79.3</v>
       </c>
@@ -1616,79 +1247,16 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1696,16 +1264,16 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>61.9</v>
@@ -1758,6 +1326,9 @@
       <c r="W7">
         <v>19.2742298</v>
       </c>
+      <c r="X7">
+        <v>11.6305242937309</v>
+      </c>
       <c r="Y7">
         <v>43.90842056</v>
       </c>
@@ -1789,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1797,71 +1368,8 @@
       <c r="AK7">
         <v>0</v>
       </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1869,16 +1377,16 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G8">
         <v>67.05870819</v>
@@ -1931,6 +1439,9 @@
       <c r="W8">
         <v>18.86</v>
       </c>
+      <c r="X8">
+        <v>2.30523380719064</v>
+      </c>
       <c r="Y8">
         <v>95.3</v>
       </c>
@@ -1962,79 +1473,16 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2042,16 +1490,16 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <v>78.3</v>
@@ -2135,79 +1583,16 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>1</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2215,16 +1600,16 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
       </c>
       <c r="G10">
         <v>36</v>
@@ -2319,71 +1704,8 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2391,16 +1713,16 @@
         <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>56.37191391</v>
@@ -2453,6 +1775,9 @@
       <c r="W11">
         <v>21</v>
       </c>
+      <c r="X11">
+        <v>9.848349858305809</v>
+      </c>
       <c r="Y11">
         <v>59.6</v>
       </c>
@@ -2484,79 +1809,16 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2564,16 +1826,16 @@
         <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G12">
         <v>19.8</v>
@@ -2626,6 +1888,9 @@
       <c r="W12">
         <v>10.6</v>
       </c>
+      <c r="X12">
+        <v>2.51944335263789</v>
+      </c>
       <c r="Y12">
         <v>70.5</v>
       </c>
@@ -2657,79 +1922,16 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2737,16 +1939,16 @@
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>61</v>
@@ -2799,6 +2001,9 @@
       <c r="W13">
         <v>17.7</v>
       </c>
+      <c r="X13">
+        <v>7.37558521356155</v>
+      </c>
       <c r="Y13">
         <v>57.7</v>
       </c>
@@ -2830,79 +2035,16 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>1</v>
-      </c>
-      <c r="AY13">
-        <v>1</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2910,16 +2052,16 @@
         <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>44.9</v>
@@ -3003,79 +2145,16 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>1</v>
-      </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>1</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3083,16 +2162,16 @@
         <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>20.4</v>
@@ -3182,73 +2261,10 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>1</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/clean_data.xlsx
+++ b/data/processed/clean_data.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+  <si>
+    <t>gni_index_x</t>
+  </si>
   <si>
     <t>country_index</t>
   </si>
@@ -40,7 +43,7 @@
     <t>access_to_electricity_urban</t>
   </si>
   <si>
-    <t>CO2_emissions_per_capita)</t>
+    <t>CO2_emissions_per_capita</t>
   </si>
   <si>
     <t>compulsory_edu_yrs</t>
@@ -67,7 +70,7 @@
     <t>fdi_pct_gdp</t>
   </si>
   <si>
-    <t>gni_index</t>
+    <t>gni_index_y</t>
   </si>
   <si>
     <t>gdp_usd</t>
@@ -575,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,109 +693,112 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>290</v>
+      </c>
+      <c r="C2">
         <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>52.1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.044485376</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>12.70699978</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.730000019</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>91.10299683</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.549000025</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6.34800005</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7.76818252</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.642421428</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>290</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3093647227</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4.660918184</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.04</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1.38</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>61.56972885</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>77.90000000000001</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>47.08506861</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>30.5</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>17.9</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1.570000052</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>11.761</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5.480228006</v>
       </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -801,227 +807,233 @@
         <v>0</v>
       </c>
       <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>3310</v>
+      </c>
+      <c r="C3">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3">
         <v>87.87672424</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>81.25119979</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>91.46945952999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.9334032370000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>17.28199959</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4.796000004</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>68.65499878</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>6.922999859</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>24.42200089</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>40.36113967</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9.718943229000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3310</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1858121723</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.611212666</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.05</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>40.26</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>12.6</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>86.8</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>23</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>42.09588617</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>20.8</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>25.3</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>10.34799957</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>64.84</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2.315808738</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>1</v>
       </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>830</v>
+      </c>
+      <c r="C4">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4">
         <v>72.91772460999999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>66.79169892</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>88.52062988</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.202814119</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>18.89999962</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>9.661999701999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>54.98300171</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>15.57699966</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>29.44099998</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>16.87471351</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.72227588</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>830</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>647720707.1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2.061639469</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.01</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>6.98</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>7.70322986825722</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>77.8</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>78.3</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>17.11820358</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>22.6</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>4.361999989</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>28.193</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2.699437729</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1029,112 +1041,115 @@
       <c r="AK4">
         <v>1</v>
       </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>440</v>
+      </c>
+      <c r="C5">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5">
         <v>13.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>42</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.06336919100000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>24.9109993</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>10.29500008</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>81.34899901999999</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>12.20400047</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>6.447000027</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>36.83218885</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>5.131664248</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>440</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>35917650630</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>9.470288097999999</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.03</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>13.5463883986769</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>77</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>101</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>46.57451961</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>10.6</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>8</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3.707999945</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>41.976</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>4.553658283</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -1142,112 +1157,115 @@
       <c r="AK5">
         <v>1</v>
       </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>2520</v>
+      </c>
+      <c r="C6">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6">
         <v>51.86239243</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>19.23297764</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>69.46530914</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.635369293</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5.625</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5.31799984</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>38.22900009</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>25</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>36.77099991</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>72.98675034</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>20.36515297</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2520</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>14177437982</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>6.779916158</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.29</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>7.11</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>9.322451410047311</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>79.3</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>56.5</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>53.17355571</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7.4</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>32.3</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>9.998000145000001</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>64.95699999999999</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3.146204713</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -1255,335 +1273,347 @@
       <c r="AK6">
         <v>1</v>
       </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>1460</v>
+      </c>
+      <c r="C7">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7">
         <v>61.9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>36.54494476</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>83.9561824</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.490206046</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>18.99900055</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8.211000443</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>50.375</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5.986000061</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>43.63999939</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>36.6588334</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.240430526</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1460</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>35372603446</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>8.79407739</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.15</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>19.2742298</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>11.6305242937309</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>43.90842056</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>98.3</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>26.27654966</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>9.4</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>13.97364016</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2.747999907</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>53.479</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>3.881971936</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:38">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>13140</v>
+      </c>
+      <c r="C8">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8">
         <v>67.05870819</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>51.01377073</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>91.37228394</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4.733816529</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>16.01600075</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5.980000019</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>54.96300125</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>8.237000464999999</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>36.79999924</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>65.9632886</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.772319187</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>13140</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>21736500713</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.415061836</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.49</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>18.86</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2.30523380719064</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>95.3</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>97.09999999999999</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>46.69405811</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>24</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>8.298900808000001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>5.494999886</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>39.756</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>4.514037661</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>1</v>
       </c>
       <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:38">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>1590</v>
+      </c>
+      <c r="C9">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9">
         <v>78.3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>63</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>90.8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.536533378</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>11</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>27.77700043</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>15.79800034</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>44.72000122</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>14.10700035</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>41.17300034</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>39.52355867</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8.604962551</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1590</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>39086625009</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>3.985865624</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.11</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>25.51773743</v>
       </c>
       <c r="Y9">
+        <v>8.512840639152266</v>
+      </c>
+      <c r="Z9">
         <v>76.59999999999999</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>63.4</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>25.35736494</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>10.9</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>20.3</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2.164000034</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>53.392</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>3.550496942</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -1591,107 +1621,110 @@
       <c r="AK9">
         <v>1</v>
       </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:38">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>1260</v>
+      </c>
+      <c r="C10">
         <v>101</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10">
-        <v>36</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
         <v>12.6</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>68.40000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.310415314</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>12</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>53.45399857</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>25.95800018</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>37.63899994</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>14.90200043</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>47.45899963</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>18.29698092</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.335986481</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1260</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>61448046802</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>5.357116778</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.3</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>16.5</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5.9</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>78.73303986000001</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>53.5</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>16.52198912</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>19.1</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>16.87697939</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>11.66699982</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>25.197</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>4.304922007</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
       <c r="AH10">
         <v>0</v>
       </c>
@@ -1704,112 +1737,115 @@
       <c r="AK10">
         <v>0</v>
       </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:38">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>2980</v>
+      </c>
+      <c r="C11">
         <v>145</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11">
         <v>56.37191391</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>31.67585522</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>84.2855835</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.545622113</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>12.18200016</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9.477000237</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>36.77999878</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>12.06200027</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>51.1590004</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>18.43512605</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.818201344</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2980</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>568499000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>6.309718596</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.21</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>21</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>9.848349858305809</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>59.6</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>111.6</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>41.60273017</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>6.7</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3.5</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>4.559999943</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>46.942</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>4.48255153</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -1817,335 +1853,347 @@
       <c r="AK11">
         <v>1</v>
       </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:38">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>700</v>
+      </c>
+      <c r="C12">
         <v>162</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12">
         <v>19.8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>9.1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>71.8</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.074016446</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>12.77900028</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>6.039000034</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>68.45300293</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>7.913000107</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>23.63400078</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>14.72211453</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3.926137464</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>700</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>8016591928</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>7.62457575</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0.14</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>10.6</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2.51944335263789</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>70.5</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>43.4</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>51.86310993</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>63.8</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>13.31802943</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1.169999957</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>27.841</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>6.054470586</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
         <v>1</v>
       </c>
       <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:38">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>1030</v>
+      </c>
+      <c r="C13">
         <v>167</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
         <v>61</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>32.7</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>85</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.608809117</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>11</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>16.31599998</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5.46999979</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>53.67399979</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>20.20499992</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>26.12100029</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>28.12071229</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2.630373382</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1030</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>15304363138</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>4.075083326</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>0.01</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>17.7</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>7.37558521356155</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>57.7</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>52.3</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>35.99474681</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>43.3</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>19.6238999</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>6.356999874</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>43.393</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>3.697122779</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <v>1</v>
       </c>
       <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:38">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>1830</v>
+      </c>
+      <c r="C14">
         <v>185</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14">
         <v>44.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>31.7</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>76.3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.299732598</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>8</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>26.11599922</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9.135000228999999</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>53.35599899</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>18.83399963</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>27.80999947</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8.149134518</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.523136574</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1830</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>82151588419</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2.679411813</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.02</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>24.64</v>
       </c>
       <c r="Y14">
+        <v>8.512840639152266</v>
+      </c>
+      <c r="Z14">
         <v>75.90000000000001</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>69</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>52.51987476</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>24.3</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>6.9</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>12.74800014</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>33.623</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2.867143272</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
         <v>1</v>
@@ -2153,107 +2201,110 @@
       <c r="AK14">
         <v>1</v>
       </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:38">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>660</v>
+      </c>
+      <c r="C15">
         <v>203</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
         <v>20.4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10.3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>51.4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.134656001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>7</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>19.75</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>12.92700005</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>71.54699707</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>6.887000084</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>21.56500053</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>18.17025675</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3.878679401</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>660</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>27291880327</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>5.106307324</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.38</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>16.9</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>11.8</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>78.40000000000001</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>60.1</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>61.38641667</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>35</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>19.7</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.907999992</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>15.766</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>5.459493493</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
       <c r="AH15">
         <v>0</v>
       </c>
@@ -2261,9 +2312,12 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
         <v>1</v>
       </c>
     </row>

--- a/data/processed/clean_data.xlsx
+++ b/data/processed/clean_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="503">
   <si>
     <t>country_index</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>m_urban_population_growth_pct</t>
+  </si>
+  <si>
+    <t>m_adult_literacy_pct</t>
+  </si>
+  <si>
+    <t>m_homicides_per_100k</t>
+  </si>
+  <si>
+    <t>m_tax_revenue_pct_gdp</t>
   </si>
   <si>
     <t>Southern Asia and Southern Pacific</t>
@@ -1871,13 +1880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY218"/>
+  <dimension ref="A1:BB218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:54">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2028,8 +2037,17 @@
       <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2037,16 +2055,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G2">
         <v>89.5</v>
@@ -2183,8 +2201,17 @@
       <c r="AY2">
         <v>0</v>
       </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2192,16 +2219,16 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G3">
         <v>34.1</v>
@@ -2338,8 +2365,17 @@
       <c r="AY3">
         <v>0</v>
       </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2347,16 +2383,16 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G4">
         <v>19.2</v>
@@ -2493,8 +2529,17 @@
       <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2502,16 +2547,16 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -2648,8 +2693,17 @@
       <c r="AY5">
         <v>0</v>
       </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2657,16 +2711,16 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G6">
         <v>12.78423595</v>
@@ -2803,8 +2857,17 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2812,16 +2875,16 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G7">
         <v>7.943912029</v>
@@ -2958,8 +3021,17 @@
       <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2967,16 +3039,16 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G8">
         <v>72.91772460999999</v>
@@ -3113,8 +3185,17 @@
       <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3122,16 +3203,16 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G9">
         <v>51.86239243</v>
@@ -3268,8 +3349,17 @@
       <c r="AY9">
         <v>0</v>
       </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3277,16 +3367,16 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G10">
         <v>44.34667587</v>
@@ -3423,8 +3513,17 @@
       <c r="AY10">
         <v>1</v>
       </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3432,16 +3531,16 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G11">
         <v>27.2</v>
@@ -3578,8 +3677,17 @@
       <c r="AY11">
         <v>0</v>
       </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3587,16 +3695,16 @@
         <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G12">
         <v>45.21674347</v>
@@ -3733,8 +3841,17 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3742,16 +3859,16 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G13">
         <v>29.92204094</v>
@@ -3888,8 +4005,17 @@
       <c r="AY13">
         <v>0</v>
       </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3897,16 +4023,16 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G14">
         <v>17.2</v>
@@ -4043,8 +4169,17 @@
       <c r="AY14">
         <v>0</v>
       </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4052,16 +4187,16 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G15">
         <v>37.75259018</v>
@@ -4198,8 +4333,17 @@
       <c r="AY15">
         <v>0</v>
       </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4207,16 +4351,16 @@
         <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G16">
         <v>35.64891434</v>
@@ -4353,8 +4497,17 @@
       <c r="AY16">
         <v>0</v>
       </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4362,16 +4515,16 @@
         <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G17">
         <v>9.4</v>
@@ -4508,8 +4661,17 @@
       <c r="AY17">
         <v>0</v>
       </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4517,16 +4679,16 @@
         <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G18">
         <v>18.59678078</v>
@@ -4663,8 +4825,17 @@
       <c r="AY18">
         <v>0</v>
       </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4672,16 +4843,16 @@
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F19" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G19">
         <v>11.9</v>
@@ -4818,8 +4989,17 @@
       <c r="AY19">
         <v>0</v>
       </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4827,16 +5007,16 @@
         <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G20">
         <v>31.82540131</v>
@@ -4973,8 +5153,17 @@
       <c r="AY20">
         <v>0</v>
       </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4982,16 +5171,16 @@
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F21" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G21">
         <v>21.86450768</v>
@@ -5128,8 +5317,17 @@
       <c r="AY21">
         <v>0</v>
       </c>
+      <c r="AZ21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5137,16 +5335,16 @@
         <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G22">
         <v>84.90000000000001</v>
@@ -5283,8 +5481,17 @@
       <c r="AY22">
         <v>0</v>
       </c>
+      <c r="AZ22">
+        <v>1</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5292,16 +5499,16 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G23">
         <v>15.03054428</v>
@@ -5438,8 +5645,17 @@
       <c r="AY23">
         <v>0</v>
       </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5447,16 +5663,16 @@
         <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G24">
         <v>19.8</v>
@@ -5593,8 +5809,17 @@
       <c r="AY24">
         <v>0</v>
       </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5602,16 +5827,16 @@
         <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G25">
         <v>61</v>
@@ -5748,8 +5973,17 @@
       <c r="AY25">
         <v>0</v>
       </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5757,16 +5991,16 @@
         <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G26">
         <v>16.03315544</v>
@@ -5903,8 +6137,17 @@
       <c r="AY26">
         <v>0</v>
       </c>
+      <c r="AZ26">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5912,16 +6155,16 @@
         <v>176</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G27">
         <v>26.69499207</v>
@@ -6058,8 +6301,17 @@
       <c r="AY27">
         <v>0</v>
       </c>
+      <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6067,16 +6319,16 @@
         <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F28" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G28">
         <v>6.923728466</v>
@@ -6213,8 +6465,17 @@
       <c r="AY28">
         <v>0</v>
       </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6222,16 +6483,16 @@
         <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G29">
         <v>99.09065246999999</v>
@@ -6368,8 +6629,17 @@
       <c r="AY29">
         <v>0</v>
       </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6377,16 +6647,16 @@
         <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G30">
         <v>99.97840881</v>
@@ -6523,8 +6793,17 @@
       <c r="AY30">
         <v>0</v>
       </c>
+      <c r="AZ30">
+        <v>1</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6532,16 +6811,16 @@
         <v>192</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G31">
         <v>18.91017914</v>
@@ -6678,8 +6957,17 @@
       <c r="AY31">
         <v>0</v>
       </c>
+      <c r="AZ31">
+        <v>1</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6687,16 +6975,16 @@
         <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F32" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G32">
         <v>45.7</v>
@@ -6833,8 +7121,17 @@
       <c r="AY32">
         <v>0</v>
       </c>
+      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6842,16 +7139,16 @@
         <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F33" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G33">
         <v>20.4</v>
@@ -6988,8 +7285,17 @@
       <c r="AY33">
         <v>0</v>
       </c>
+      <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6997,16 +7303,16 @@
         <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F34" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G34">
         <v>66.09999999999999</v>
@@ -7143,8 +7449,17 @@
       <c r="AY34">
         <v>0</v>
       </c>
+      <c r="AZ34">
+        <v>1</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7152,16 +7467,16 @@
         <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F35" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G35">
         <v>32.3</v>
@@ -7298,8 +7613,17 @@
       <c r="AY35">
         <v>0</v>
       </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7307,16 +7631,16 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F36" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -7453,8 +7777,17 @@
       <c r="AY36">
         <v>0</v>
       </c>
+      <c r="AZ36">
+        <v>1</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7462,16 +7795,16 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G37">
         <v>99.23434448</v>
@@ -7608,8 +7941,17 @@
       <c r="AY37">
         <v>0</v>
       </c>
+      <c r="AZ37">
+        <v>1</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7617,16 +7959,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F38" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G38">
         <v>99.23434448</v>
@@ -7763,8 +8105,17 @@
       <c r="AY38">
         <v>0</v>
       </c>
+      <c r="AZ38">
+        <v>1</v>
+      </c>
+      <c r="BA38">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7772,16 +8123,16 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F39" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G39">
         <v>99.98897552</v>
@@ -7918,8 +8269,17 @@
       <c r="AY39">
         <v>0</v>
       </c>
+      <c r="AZ39">
+        <v>1</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7927,16 +8287,16 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F40" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -8073,8 +8433,17 @@
       <c r="AY40">
         <v>0</v>
       </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8082,16 +8451,16 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -8228,8 +8597,17 @@
       <c r="AY41">
         <v>0</v>
       </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8237,16 +8615,16 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G42">
         <v>91.77205658</v>
@@ -8383,8 +8761,17 @@
       <c r="AY42">
         <v>0</v>
       </c>
+      <c r="AZ42">
+        <v>1</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8392,16 +8779,16 @@
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F43" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -8538,8 +8925,17 @@
       <c r="AY43">
         <v>0</v>
       </c>
+      <c r="AZ43">
+        <v>1</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8547,16 +8943,16 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F44" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G44">
         <v>56.36960983</v>
@@ -8693,8 +9089,17 @@
       <c r="AY44">
         <v>0</v>
       </c>
+      <c r="AZ44">
+        <v>1</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8702,16 +9107,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F45" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G45">
         <v>99.65024699999999</v>
@@ -8848,8 +9253,17 @@
       <c r="AY45">
         <v>0</v>
       </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8857,16 +9271,16 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F46" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -9003,8 +9417,17 @@
       <c r="AY46">
         <v>0</v>
       </c>
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9012,16 +9435,16 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F47" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G47">
         <v>99.99848938</v>
@@ -9158,8 +9581,17 @@
       <c r="AY47">
         <v>0</v>
       </c>
+      <c r="AZ47">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9167,16 +9599,16 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F48" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G48">
         <v>97.790938</v>
@@ -9313,8 +9745,17 @@
       <c r="AY48">
         <v>0</v>
       </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9322,16 +9763,16 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F49" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G49">
         <v>99.359291</v>
@@ -9468,8 +9909,17 @@
       <c r="AY49">
         <v>0</v>
       </c>
+      <c r="AZ49">
+        <v>1</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9477,16 +9927,16 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F50" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -9623,8 +10073,17 @@
       <c r="AY50">
         <v>0</v>
       </c>
+      <c r="AZ50">
+        <v>1</v>
+      </c>
+      <c r="BA50">
+        <v>1</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9632,16 +10091,16 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F51" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G51">
         <v>99.58107758</v>
@@ -9778,8 +10237,17 @@
       <c r="AY51">
         <v>0</v>
       </c>
+      <c r="AZ51">
+        <v>1</v>
+      </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9787,16 +10255,16 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F52" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G52">
         <v>98.470979</v>
@@ -9933,8 +10401,17 @@
       <c r="AY52">
         <v>0</v>
       </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9942,16 +10419,16 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F53" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G53">
         <v>98.976067</v>
@@ -10088,8 +10565,17 @@
       <c r="AY53">
         <v>0</v>
       </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10097,16 +10583,16 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F54" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G54">
         <v>67.05870819</v>
@@ -10243,8 +10729,17 @@
       <c r="AY54">
         <v>0</v>
       </c>
+      <c r="AZ54">
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10252,16 +10747,16 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F55" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G55">
         <v>95.59343719</v>
@@ -10398,8 +10893,17 @@
       <c r="AY55">
         <v>0</v>
       </c>
+      <c r="AZ55">
+        <v>1</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10407,16 +10911,16 @@
         <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F56" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G56">
         <v>89.21994019</v>
@@ -10553,8 +11057,17 @@
       <c r="AY56">
         <v>0</v>
       </c>
+      <c r="AZ56">
+        <v>1</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10562,16 +11075,16 @@
         <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F57" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G57">
         <v>91.39950562</v>
@@ -10708,8 +11221,17 @@
       <c r="AY57">
         <v>0</v>
       </c>
+      <c r="AZ57">
+        <v>1</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10717,16 +11239,16 @@
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F58" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G58">
         <v>85.494371</v>
@@ -10863,8 +11385,17 @@
       <c r="AY58">
         <v>0</v>
       </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10872,16 +11403,16 @@
         <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G59">
         <v>86.90000000000001</v>
@@ -11018,8 +11549,17 @@
       <c r="AY59">
         <v>0</v>
       </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11027,16 +11567,16 @@
         <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G60">
         <v>100</v>
@@ -11173,8 +11713,17 @@
       <c r="AY60">
         <v>0</v>
       </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11182,16 +11731,16 @@
         <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F61" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G61">
         <v>99.65541077</v>
@@ -11328,8 +11877,17 @@
       <c r="AY61">
         <v>0</v>
       </c>
+      <c r="AZ61">
+        <v>1</v>
+      </c>
+      <c r="BA61">
+        <v>1</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11337,16 +11895,16 @@
         <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F62" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G62">
         <v>96.35400391</v>
@@ -11483,8 +12041,17 @@
       <c r="AY62">
         <v>0</v>
       </c>
+      <c r="AZ62">
+        <v>1</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11492,16 +12059,16 @@
         <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F63" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G63">
         <v>99.98558807000001</v>
@@ -11638,8 +12205,17 @@
       <c r="AY63">
         <v>0</v>
       </c>
+      <c r="AZ63">
+        <v>1</v>
+      </c>
+      <c r="BA63">
+        <v>1</v>
+      </c>
+      <c r="BB63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11647,16 +12223,16 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F64" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G64">
         <v>99.98814392</v>
@@ -11793,8 +12369,17 @@
       <c r="AY64">
         <v>0</v>
       </c>
+      <c r="AZ64">
+        <v>1</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11802,16 +12387,16 @@
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F65" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G65">
         <v>100</v>
@@ -11948,8 +12533,17 @@
       <c r="AY65">
         <v>0</v>
       </c>
+      <c r="AZ65">
+        <v>1</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11957,16 +12551,16 @@
         <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E66" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F66" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G66">
         <v>98.52130127</v>
@@ -12103,8 +12697,17 @@
       <c r="AY66">
         <v>0</v>
       </c>
+      <c r="AZ66">
+        <v>1</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -12112,16 +12715,16 @@
         <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E67" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F67" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G67">
         <v>99.99980927</v>
@@ -12258,8 +12861,17 @@
       <c r="AY67">
         <v>0</v>
       </c>
+      <c r="AZ67">
+        <v>1</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -12267,16 +12879,16 @@
         <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F68" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G68">
         <v>99.98512268</v>
@@ -12413,8 +13025,17 @@
       <c r="AY68">
         <v>0</v>
       </c>
+      <c r="AZ68">
+        <v>1</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -12422,16 +13043,16 @@
         <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F69" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G69">
         <v>100</v>
@@ -12568,8 +13189,17 @@
       <c r="AY69">
         <v>0</v>
       </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -12577,16 +13207,16 @@
         <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F70" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G70">
         <v>89.89221191</v>
@@ -12723,8 +13353,17 @@
       <c r="AY70">
         <v>0</v>
       </c>
+      <c r="AZ70">
+        <v>1</v>
+      </c>
+      <c r="BA70">
+        <v>1</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -12732,16 +13371,16 @@
         <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F71" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G71">
         <v>98.70124054</v>
@@ -12878,8 +13517,17 @@
       <c r="AY71">
         <v>0</v>
       </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -12887,16 +13535,16 @@
         <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F72" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G72">
         <v>99.172928</v>
@@ -13033,8 +13681,17 @@
       <c r="AY72">
         <v>0</v>
       </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -13042,16 +13699,16 @@
         <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F73" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G73">
         <v>99.99226379</v>
@@ -13188,8 +13845,17 @@
       <c r="AY73">
         <v>0</v>
       </c>
+      <c r="AZ73">
+        <v>1</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:51">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -13197,16 +13863,16 @@
         <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F74" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G74">
         <v>49.62493515</v>
@@ -13343,8 +14009,17 @@
       <c r="AY74">
         <v>0</v>
       </c>
+      <c r="AZ74">
+        <v>1</v>
+      </c>
+      <c r="BA74">
+        <v>1</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:51">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -13352,16 +14027,16 @@
         <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F75" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G75">
         <v>99.17205810999999</v>
@@ -13498,8 +14173,17 @@
       <c r="AY75">
         <v>0</v>
       </c>
+      <c r="AZ75">
+        <v>1</v>
+      </c>
+      <c r="BA75">
+        <v>1</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -13507,16 +14191,16 @@
         <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F76" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G76">
         <v>99.000716</v>
@@ -13653,8 +14337,17 @@
       <c r="AY76">
         <v>0</v>
       </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -13662,16 +14355,16 @@
         <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F77" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G77">
         <v>92.919989</v>
@@ -13808,8 +14501,17 @@
       <c r="AY77">
         <v>0</v>
       </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:51">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -13817,16 +14519,16 @@
         <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F78" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G78">
         <v>100</v>
@@ -13963,8 +14665,17 @@
       <c r="AY78">
         <v>0</v>
       </c>
+      <c r="AZ78">
+        <v>1</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:51">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -13972,16 +14683,16 @@
         <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F79" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G79">
         <v>100</v>
@@ -14118,8 +14829,17 @@
       <c r="AY79">
         <v>0</v>
       </c>
+      <c r="AZ79">
+        <v>1</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:51">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -14127,16 +14847,16 @@
         <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F80" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G80">
         <v>97.90000000000001</v>
@@ -14273,8 +14993,17 @@
       <c r="AY80">
         <v>0</v>
       </c>
+      <c r="AZ80">
+        <v>1</v>
+      </c>
+      <c r="BA80">
+        <v>1</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:51">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -14282,16 +15011,16 @@
         <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F81" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G81">
         <v>99.66079793</v>
@@ -14428,8 +15157,17 @@
       <c r="AY81">
         <v>0</v>
       </c>
+      <c r="AZ81">
+        <v>1</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:51">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -14437,16 +15175,16 @@
         <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F82" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G82">
         <v>86</v>
@@ -14583,8 +15321,17 @@
       <c r="AY82">
         <v>0</v>
       </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:51">
+    <row r="83" spans="1:54">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -14592,16 +15339,16 @@
         <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F83" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G83">
         <v>96.56573486000001</v>
@@ -14738,8 +15485,17 @@
       <c r="AY83">
         <v>0</v>
       </c>
+      <c r="AZ83">
+        <v>1</v>
+      </c>
+      <c r="BA83">
+        <v>1</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:51">
+    <row r="84" spans="1:54">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -14747,16 +15503,16 @@
         <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F84" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G84">
         <v>98.59864807</v>
@@ -14893,8 +15649,17 @@
       <c r="AY84">
         <v>0</v>
       </c>
+      <c r="AZ84">
+        <v>1</v>
+      </c>
+      <c r="BA84">
+        <v>1</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:51">
+    <row r="85" spans="1:54">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -14902,16 +15667,16 @@
         <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F85" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G85">
         <v>88.31352997</v>
@@ -15048,8 +15813,17 @@
       <c r="AY85">
         <v>0</v>
       </c>
+      <c r="AZ85">
+        <v>1</v>
+      </c>
+      <c r="BA85">
+        <v>1</v>
+      </c>
+      <c r="BB85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:51">
+    <row r="86" spans="1:54">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -15057,16 +15831,16 @@
         <v>193</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F86" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G86">
         <v>99.98166655999999</v>
@@ -15203,8 +15977,17 @@
       <c r="AY86">
         <v>0</v>
       </c>
+      <c r="AZ86">
+        <v>1</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:51">
+    <row r="87" spans="1:54">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -15212,16 +15995,16 @@
         <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F87" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G87">
         <v>95.38067627</v>
@@ -15358,8 +16141,17 @@
       <c r="AY87">
         <v>0</v>
       </c>
+      <c r="AZ87">
+        <v>1</v>
+      </c>
+      <c r="BA87">
+        <v>1</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:51">
+    <row r="88" spans="1:54">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -15367,16 +16159,16 @@
         <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E88" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F88" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G88">
         <v>100</v>
@@ -15513,8 +16305,17 @@
       <c r="AY88">
         <v>0</v>
       </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:51">
+    <row r="89" spans="1:54">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -15522,16 +16323,16 @@
         <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E89" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F89" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G89">
         <v>99.99884796000001</v>
@@ -15668,8 +16469,17 @@
       <c r="AY89">
         <v>0</v>
       </c>
+      <c r="AZ89">
+        <v>1</v>
+      </c>
+      <c r="BA89">
+        <v>1</v>
+      </c>
+      <c r="BB89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:51">
+    <row r="90" spans="1:54">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -15677,16 +16487,16 @@
         <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F90" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G90">
         <v>98.63970184</v>
@@ -15823,8 +16633,17 @@
       <c r="AY90">
         <v>0</v>
       </c>
+      <c r="AZ90">
+        <v>1</v>
+      </c>
+      <c r="BA90">
+        <v>1</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:51">
+    <row r="91" spans="1:54">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -15832,16 +16651,16 @@
         <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E91" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F91" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G91">
         <v>99.31814575</v>
@@ -15978,8 +16797,17 @@
       <c r="AY91">
         <v>0</v>
       </c>
+      <c r="AZ91">
+        <v>1</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:51">
+    <row r="92" spans="1:54">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -15987,16 +16815,16 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F92" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G92">
         <v>100</v>
@@ -16133,8 +16961,17 @@
       <c r="AY92">
         <v>0</v>
       </c>
+      <c r="AZ92">
+        <v>1</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:51">
+    <row r="93" spans="1:54">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -16142,16 +16979,16 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F93" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G93">
         <v>96.29841614</v>
@@ -16288,8 +17125,17 @@
       <c r="AY93">
         <v>0</v>
       </c>
+      <c r="AZ93">
+        <v>1</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:51">
+    <row r="94" spans="1:54">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -16297,16 +17143,16 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E94" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F94" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G94">
         <v>99.95924377</v>
@@ -16443,8 +17289,17 @@
       <c r="AY94">
         <v>0</v>
       </c>
+      <c r="AZ94">
+        <v>1</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:51">
+    <row r="95" spans="1:54">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -16452,16 +17307,16 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F95" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G95">
         <v>94.90672302</v>
@@ -16598,8 +17453,17 @@
       <c r="AY95">
         <v>0</v>
       </c>
+      <c r="AZ95">
+        <v>1</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+      <c r="BB95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:51">
+    <row r="96" spans="1:54">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -16607,16 +17471,16 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F96" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G96">
         <v>100</v>
@@ -16753,8 +17617,17 @@
       <c r="AY96">
         <v>0</v>
       </c>
+      <c r="AZ96">
+        <v>1</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:51">
+    <row r="97" spans="1:54">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -16762,16 +17635,16 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E97" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F97" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G97">
         <v>100</v>
@@ -16908,8 +17781,17 @@
       <c r="AY97">
         <v>0</v>
       </c>
+      <c r="AZ97">
+        <v>1</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:51">
+    <row r="98" spans="1:54">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -16917,16 +17799,16 @@
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F98" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G98">
         <v>100</v>
@@ -17063,8 +17945,17 @@
       <c r="AY98">
         <v>0</v>
       </c>
+      <c r="AZ98">
+        <v>1</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:51">
+    <row r="99" spans="1:54">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17072,16 +17963,16 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E99" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F99" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G99">
         <v>100</v>
@@ -17218,8 +18109,17 @@
       <c r="AY99">
         <v>0</v>
       </c>
+      <c r="AZ99">
+        <v>1</v>
+      </c>
+      <c r="BA99">
+        <v>1</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:51">
+    <row r="100" spans="1:54">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -17227,16 +18127,16 @@
         <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F100" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G100">
         <v>100</v>
@@ -17373,8 +18273,17 @@
       <c r="AY100">
         <v>0</v>
       </c>
+      <c r="AZ100">
+        <v>1</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:51">
+    <row r="101" spans="1:54">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -17382,16 +18291,16 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E101" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F101" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -17528,8 +18437,17 @@
       <c r="AY101">
         <v>0</v>
       </c>
+      <c r="AZ101">
+        <v>1</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:51">
+    <row r="102" spans="1:54">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -17537,16 +18455,16 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E102" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F102" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -17683,8 +18601,17 @@
       <c r="AY102">
         <v>0</v>
       </c>
+      <c r="AZ102">
+        <v>1</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:51">
+    <row r="103" spans="1:54">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -17692,16 +18619,16 @@
         <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F103" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G103">
         <v>100</v>
@@ -17838,8 +18765,17 @@
       <c r="AY103">
         <v>0</v>
       </c>
+      <c r="AZ103">
+        <v>1</v>
+      </c>
+      <c r="BA103">
+        <v>1</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
     </row>
-    <row r="104" spans="1:51">
+    <row r="104" spans="1:54">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -17847,16 +18783,16 @@
         <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E104" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F104" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G104">
         <v>100</v>
@@ -17993,8 +18929,17 @@
       <c r="AY104">
         <v>0</v>
       </c>
+      <c r="AZ104">
+        <v>1</v>
+      </c>
+      <c r="BA104">
+        <v>1</v>
+      </c>
+      <c r="BB104">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:51">
+    <row r="105" spans="1:54">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -18002,16 +18947,16 @@
         <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E105" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F105" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G105">
         <v>100</v>
@@ -18148,8 +19093,17 @@
       <c r="AY105">
         <v>0</v>
       </c>
+      <c r="AZ105">
+        <v>1</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:51">
+    <row r="106" spans="1:54">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -18157,16 +19111,16 @@
         <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E106" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F106" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G106">
         <v>100</v>
@@ -18303,8 +19257,17 @@
       <c r="AY106">
         <v>0</v>
       </c>
+      <c r="AZ106">
+        <v>1</v>
+      </c>
+      <c r="BA106">
+        <v>1</v>
+      </c>
+      <c r="BB106">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:51">
+    <row r="107" spans="1:54">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -18312,16 +19275,16 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E107" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F107" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G107">
         <v>100</v>
@@ -18458,8 +19421,17 @@
       <c r="AY107">
         <v>0</v>
       </c>
+      <c r="AZ107">
+        <v>1</v>
+      </c>
+      <c r="BA107">
+        <v>1</v>
+      </c>
+      <c r="BB107">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:51">
+    <row r="108" spans="1:54">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -18467,16 +19439,16 @@
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D108" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E108" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F108" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G108">
         <v>99.99533844</v>
@@ -18613,8 +19585,17 @@
       <c r="AY108">
         <v>0</v>
       </c>
+      <c r="AZ108">
+        <v>1</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:51">
+    <row r="109" spans="1:54">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -18622,16 +19603,16 @@
         <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D109" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E109" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F109" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G109">
         <v>100</v>
@@ -18768,8 +19749,17 @@
       <c r="AY109">
         <v>0</v>
       </c>
+      <c r="AZ109">
+        <v>1</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:51">
+    <row r="110" spans="1:54">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -18777,16 +19767,16 @@
         <v>51</v>
       </c>
       <c r="C110" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E110" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F110" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G110">
         <v>100</v>
@@ -18923,8 +19913,17 @@
       <c r="AY110">
         <v>0</v>
       </c>
+      <c r="AZ110">
+        <v>1</v>
+      </c>
+      <c r="BA110">
+        <v>1</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="1:51">
+    <row r="111" spans="1:54">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -18932,16 +19931,16 @@
         <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E111" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F111" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G111">
         <v>100</v>
@@ -19078,8 +20077,17 @@
       <c r="AY111">
         <v>0</v>
       </c>
+      <c r="AZ111">
+        <v>1</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:51">
+    <row r="112" spans="1:54">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -19087,16 +20095,16 @@
         <v>53</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D112" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E112" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F112" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G112">
         <v>100</v>
@@ -19233,8 +20241,17 @@
       <c r="AY112">
         <v>0</v>
       </c>
+      <c r="AZ112">
+        <v>1</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:51">
+    <row r="113" spans="1:54">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19242,16 +20259,16 @@
         <v>54</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E113" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F113" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G113">
         <v>100</v>
@@ -19388,8 +20405,17 @@
       <c r="AY113">
         <v>0</v>
       </c>
+      <c r="AZ113">
+        <v>1</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:51">
+    <row r="114" spans="1:54">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19397,16 +20423,16 @@
         <v>63</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E114" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F114" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G114">
         <v>100</v>
@@ -19543,8 +20569,17 @@
       <c r="AY114">
         <v>0</v>
       </c>
+      <c r="AZ114">
+        <v>1</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:51">
+    <row r="115" spans="1:54">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19552,16 +20587,16 @@
         <v>65</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E115" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F115" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G115">
         <v>100</v>
@@ -19698,8 +20733,17 @@
       <c r="AY115">
         <v>0</v>
       </c>
+      <c r="AZ115">
+        <v>1</v>
+      </c>
+      <c r="BA115">
+        <v>1</v>
+      </c>
+      <c r="BB115">
+        <v>1</v>
+      </c>
     </row>
-    <row r="116" spans="1:51">
+    <row r="116" spans="1:54">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -19707,16 +20751,16 @@
         <v>67</v>
       </c>
       <c r="C116" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E116" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F116" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G116">
         <v>100</v>
@@ -19853,8 +20897,17 @@
       <c r="AY116">
         <v>0</v>
       </c>
+      <c r="AZ116">
+        <v>1</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:51">
+    <row r="117" spans="1:54">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -19862,16 +20915,16 @@
         <v>68</v>
       </c>
       <c r="C117" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E117" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F117" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G117">
         <v>100</v>
@@ -20008,8 +21061,17 @@
       <c r="AY117">
         <v>0</v>
       </c>
+      <c r="AZ117">
+        <v>1</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:51">
+    <row r="118" spans="1:54">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -20017,16 +21079,16 @@
         <v>69</v>
       </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E118" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F118" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G118">
         <v>100</v>
@@ -20163,8 +21225,17 @@
       <c r="AY118">
         <v>0</v>
       </c>
+      <c r="AZ118">
+        <v>1</v>
+      </c>
+      <c r="BA118">
+        <v>1</v>
+      </c>
+      <c r="BB118">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:51">
+    <row r="119" spans="1:54">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -20172,16 +21243,16 @@
         <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E119" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F119" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G119">
         <v>100</v>
@@ -20318,8 +21389,17 @@
       <c r="AY119">
         <v>0</v>
       </c>
+      <c r="AZ119">
+        <v>1</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:51">
+    <row r="120" spans="1:54">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20327,16 +21407,16 @@
         <v>75</v>
       </c>
       <c r="C120" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D120" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E120" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F120" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G120">
         <v>100</v>
@@ -20473,8 +21553,17 @@
       <c r="AY120">
         <v>0</v>
       </c>
+      <c r="AZ120">
+        <v>1</v>
+      </c>
+      <c r="BA120">
+        <v>1</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
     </row>
-    <row r="121" spans="1:51">
+    <row r="121" spans="1:54">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20482,16 +21571,16 @@
         <v>76</v>
       </c>
       <c r="C121" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E121" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F121" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G121">
         <v>100</v>
@@ -20628,8 +21717,17 @@
       <c r="AY121">
         <v>0</v>
       </c>
+      <c r="AZ121">
+        <v>1</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:51">
+    <row r="122" spans="1:54">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20637,16 +21735,16 @@
         <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E122" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F122" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G122">
         <v>100</v>
@@ -20783,8 +21881,17 @@
       <c r="AY122">
         <v>0</v>
       </c>
+      <c r="AZ122">
+        <v>1</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:51">
+    <row r="123" spans="1:54">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20792,16 +21899,16 @@
         <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D123" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E123" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F123" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G123">
         <v>100</v>
@@ -20938,8 +22045,17 @@
       <c r="AY123">
         <v>0</v>
       </c>
+      <c r="AZ123">
+        <v>1</v>
+      </c>
+      <c r="BA123">
+        <v>1</v>
+      </c>
+      <c r="BB123">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:51">
+    <row r="124" spans="1:54">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -20947,16 +22063,16 @@
         <v>86</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D124" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E124" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F124" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G124">
         <v>100</v>
@@ -21093,8 +22209,17 @@
       <c r="AY124">
         <v>0</v>
       </c>
+      <c r="AZ124">
+        <v>1</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>1</v>
+      </c>
     </row>
-    <row r="125" spans="1:51">
+    <row r="125" spans="1:54">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -21102,16 +22227,16 @@
         <v>87</v>
       </c>
       <c r="C125" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D125" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E125" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F125" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G125">
         <v>100</v>
@@ -21248,8 +22373,17 @@
       <c r="AY125">
         <v>0</v>
       </c>
+      <c r="AZ125">
+        <v>1</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:51">
+    <row r="126" spans="1:54">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -21257,16 +22391,16 @@
         <v>88</v>
       </c>
       <c r="C126" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E126" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F126" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G126">
         <v>100</v>
@@ -21403,8 +22537,17 @@
       <c r="AY126">
         <v>0</v>
       </c>
+      <c r="AZ126">
+        <v>1</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:51">
+    <row r="127" spans="1:54">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -21412,16 +22555,16 @@
         <v>93</v>
       </c>
       <c r="C127" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E127" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F127" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G127">
         <v>100</v>
@@ -21558,8 +22701,17 @@
       <c r="AY127">
         <v>0</v>
       </c>
+      <c r="AZ127">
+        <v>1</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:51">
+    <row r="128" spans="1:54">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -21567,16 +22719,16 @@
         <v>94</v>
       </c>
       <c r="C128" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E128" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F128" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G128">
         <v>100</v>
@@ -21713,8 +22865,17 @@
       <c r="AY128">
         <v>0</v>
       </c>
+      <c r="AZ128">
+        <v>1</v>
+      </c>
+      <c r="BA128">
+        <v>1</v>
+      </c>
+      <c r="BB128">
+        <v>1</v>
+      </c>
     </row>
-    <row r="129" spans="1:51">
+    <row r="129" spans="1:54">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -21722,16 +22883,16 @@
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D129" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E129" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F129" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G129">
         <v>100</v>
@@ -21868,8 +23029,17 @@
       <c r="AY129">
         <v>0</v>
       </c>
+      <c r="AZ129">
+        <v>1</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:51">
+    <row r="130" spans="1:54">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -21877,16 +23047,16 @@
         <v>96</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D130" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E130" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F130" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G130">
         <v>100</v>
@@ -22023,8 +23193,17 @@
       <c r="AY130">
         <v>0</v>
       </c>
+      <c r="AZ130">
+        <v>1</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:51">
+    <row r="131" spans="1:54">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -22032,16 +23211,16 @@
         <v>98</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D131" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E131" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F131" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G131">
         <v>100</v>
@@ -22178,8 +23357,17 @@
       <c r="AY131">
         <v>0</v>
       </c>
+      <c r="AZ131">
+        <v>1</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:51">
+    <row r="132" spans="1:54">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -22187,16 +23375,16 @@
         <v>104</v>
       </c>
       <c r="C132" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E132" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F132" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G132">
         <v>100</v>
@@ -22333,8 +23521,17 @@
       <c r="AY132">
         <v>0</v>
       </c>
+      <c r="AZ132">
+        <v>1</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:51">
+    <row r="133" spans="1:54">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -22342,16 +23539,16 @@
         <v>106</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D133" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E133" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F133" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G133">
         <v>100</v>
@@ -22488,8 +23685,17 @@
       <c r="AY133">
         <v>0</v>
       </c>
+      <c r="AZ133">
+        <v>1</v>
+      </c>
+      <c r="BA133">
+        <v>1</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:51">
+    <row r="134" spans="1:54">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -22497,16 +23703,16 @@
         <v>109</v>
       </c>
       <c r="C134" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D134" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E134" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F134" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G134">
         <v>100</v>
@@ -22643,8 +23849,17 @@
       <c r="AY134">
         <v>0</v>
       </c>
+      <c r="AZ134">
+        <v>1</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:51">
+    <row r="135" spans="1:54">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22652,16 +23867,16 @@
         <v>114</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D135" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E135" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F135" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G135">
         <v>100</v>
@@ -22798,8 +24013,17 @@
       <c r="AY135">
         <v>0</v>
       </c>
+      <c r="AZ135">
+        <v>1</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:51">
+    <row r="136" spans="1:54">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -22807,16 +24031,16 @@
         <v>115</v>
       </c>
       <c r="C136" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D136" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E136" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F136" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G136">
         <v>100</v>
@@ -22953,8 +24177,17 @@
       <c r="AY136">
         <v>0</v>
       </c>
+      <c r="AZ136">
+        <v>1</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:51">
+    <row r="137" spans="1:54">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -22962,16 +24195,16 @@
         <v>116</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D137" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E137" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F137" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G137">
         <v>100</v>
@@ -23108,8 +24341,17 @@
       <c r="AY137">
         <v>0</v>
       </c>
+      <c r="AZ137">
+        <v>1</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:51">
+    <row r="138" spans="1:54">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -23117,16 +24359,16 @@
         <v>117</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D138" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E138" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F138" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G138">
         <v>100</v>
@@ -23263,8 +24505,17 @@
       <c r="AY138">
         <v>0</v>
       </c>
+      <c r="AZ138">
+        <v>1</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:51">
+    <row r="139" spans="1:54">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -23272,16 +24523,16 @@
         <v>124</v>
       </c>
       <c r="C139" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D139" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E139" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F139" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G139">
         <v>100</v>
@@ -23418,8 +24669,17 @@
       <c r="AY139">
         <v>0</v>
       </c>
+      <c r="AZ139">
+        <v>1</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:51">
+    <row r="140" spans="1:54">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -23427,16 +24687,16 @@
         <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D140" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E140" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F140" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G140">
         <v>100</v>
@@ -23573,8 +24833,17 @@
       <c r="AY140">
         <v>0</v>
       </c>
+      <c r="AZ140">
+        <v>1</v>
+      </c>
+      <c r="BA140">
+        <v>1</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
     </row>
-    <row r="141" spans="1:51">
+    <row r="141" spans="1:54">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -23582,16 +24851,16 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E141" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F141" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G141">
         <v>100</v>
@@ -23728,8 +24997,17 @@
       <c r="AY141">
         <v>0</v>
       </c>
+      <c r="AZ141">
+        <v>1</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:51">
+    <row r="142" spans="1:54">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23737,16 +25015,16 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D142" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E142" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F142" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G142">
         <v>100</v>
@@ -23883,8 +25161,17 @@
       <c r="AY142">
         <v>0</v>
       </c>
+      <c r="AZ142">
+        <v>1</v>
+      </c>
+      <c r="BA142">
+        <v>1</v>
+      </c>
+      <c r="BB142">
+        <v>1</v>
+      </c>
     </row>
-    <row r="143" spans="1:51">
+    <row r="143" spans="1:54">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -23892,16 +25179,16 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D143" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E143" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F143" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G143">
         <v>100</v>
@@ -24038,8 +25325,17 @@
       <c r="AY143">
         <v>0</v>
       </c>
+      <c r="AZ143">
+        <v>1</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:51">
+    <row r="144" spans="1:54">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -24047,16 +25343,16 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D144" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E144" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F144" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G144">
         <v>100</v>
@@ -24193,8 +25489,17 @@
       <c r="AY144">
         <v>0</v>
       </c>
+      <c r="AZ144">
+        <v>1</v>
+      </c>
+      <c r="BA144">
+        <v>1</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
     </row>
-    <row r="145" spans="1:51">
+    <row r="145" spans="1:54">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -24202,16 +25507,16 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E145" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F145" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G145">
         <v>100</v>
@@ -24348,8 +25653,17 @@
       <c r="AY145">
         <v>0</v>
       </c>
+      <c r="AZ145">
+        <v>1</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:51">
+    <row r="146" spans="1:54">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -24357,16 +25671,16 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D146" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E146" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F146" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G146">
         <v>100</v>
@@ -24503,8 +25817,17 @@
       <c r="AY146">
         <v>0</v>
       </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>1</v>
+      </c>
+      <c r="BB146">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:51">
+    <row r="147" spans="1:54">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -24512,16 +25835,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D147" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E147" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F147" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G147">
         <v>99.8103</v>
@@ -24658,8 +25981,17 @@
       <c r="AY147">
         <v>0</v>
       </c>
+      <c r="AZ147">
+        <v>1</v>
+      </c>
+      <c r="BA147">
+        <v>1</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:51">
+    <row r="148" spans="1:54">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -24667,16 +25999,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D148" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E148" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F148" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G148">
         <v>91.69238281</v>
@@ -24813,8 +26145,17 @@
       <c r="AY148">
         <v>0</v>
       </c>
+      <c r="AZ148">
+        <v>1</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
     </row>
-    <row r="149" spans="1:51">
+    <row r="149" spans="1:54">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24822,16 +26163,16 @@
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D149" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E149" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F149" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G149">
         <v>100</v>
@@ -24968,8 +26309,17 @@
       <c r="AY149">
         <v>0</v>
       </c>
+      <c r="AZ149">
+        <v>1</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:51">
+    <row r="150" spans="1:54">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -24977,16 +26327,16 @@
         <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D150" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E150" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F150" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G150">
         <v>100</v>
@@ -25123,8 +26473,17 @@
       <c r="AY150">
         <v>0</v>
       </c>
+      <c r="AZ150">
+        <v>1</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:51">
+    <row r="151" spans="1:54">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -25132,16 +26491,16 @@
         <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D151" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E151" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F151" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G151">
         <v>100</v>
@@ -25278,8 +26637,17 @@
       <c r="AY151">
         <v>0</v>
       </c>
+      <c r="AZ151">
+        <v>1</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>1</v>
+      </c>
     </row>
-    <row r="152" spans="1:51">
+    <row r="152" spans="1:54">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -25287,16 +26655,16 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D152" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E152" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F152" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G152">
         <v>100</v>
@@ -25433,8 +26801,17 @@
       <c r="AY152">
         <v>0</v>
       </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>1</v>
+      </c>
+      <c r="BB152">
+        <v>1</v>
+      </c>
     </row>
-    <row r="153" spans="1:51">
+    <row r="153" spans="1:54">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -25442,16 +26819,16 @@
         <v>164</v>
       </c>
       <c r="C153" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D153" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E153" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F153" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G153">
         <v>100</v>
@@ -25588,8 +26965,17 @@
       <c r="AY153">
         <v>0</v>
       </c>
+      <c r="AZ153">
+        <v>1</v>
+      </c>
+      <c r="BA153">
+        <v>1</v>
+      </c>
+      <c r="BB153">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:51">
+    <row r="154" spans="1:54">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -25597,16 +26983,16 @@
         <v>166</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D154" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E154" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F154" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G154">
         <v>100</v>
@@ -25743,8 +27129,17 @@
       <c r="AY154">
         <v>0</v>
       </c>
+      <c r="AZ154">
+        <v>1</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>1</v>
+      </c>
     </row>
-    <row r="155" spans="1:51">
+    <row r="155" spans="1:54">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -25752,16 +27147,16 @@
         <v>169</v>
       </c>
       <c r="C155" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D155" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E155" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F155" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G155">
         <v>99.29888916</v>
@@ -25898,8 +27293,17 @@
       <c r="AY155">
         <v>0</v>
       </c>
+      <c r="AZ155">
+        <v>1</v>
+      </c>
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:51">
+    <row r="156" spans="1:54">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -25907,16 +27311,16 @@
         <v>171</v>
       </c>
       <c r="C156" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D156" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E156" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F156" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G156">
         <v>100</v>
@@ -26053,8 +27457,17 @@
       <c r="AY156">
         <v>0</v>
       </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:51">
+    <row r="157" spans="1:54">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -26062,16 +27475,16 @@
         <v>172</v>
       </c>
       <c r="C157" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D157" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E157" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F157" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G157">
         <v>100</v>
@@ -26208,8 +27621,17 @@
       <c r="AY157">
         <v>0</v>
       </c>
+      <c r="AZ157">
+        <v>1</v>
+      </c>
+      <c r="BA157">
+        <v>1</v>
+      </c>
+      <c r="BB157">
+        <v>1</v>
+      </c>
     </row>
-    <row r="158" spans="1:51">
+    <row r="158" spans="1:54">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -26217,16 +27639,16 @@
         <v>173</v>
       </c>
       <c r="C158" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D158" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E158" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F158" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G158">
         <v>100</v>
@@ -26363,8 +27785,17 @@
       <c r="AY158">
         <v>0</v>
       </c>
+      <c r="AZ158">
+        <v>1</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:51">
+    <row r="159" spans="1:54">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -26372,16 +27803,16 @@
         <v>174</v>
       </c>
       <c r="C159" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D159" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E159" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F159" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G159">
         <v>100</v>
@@ -26518,8 +27949,17 @@
       <c r="AY159">
         <v>0</v>
       </c>
+      <c r="AZ159">
+        <v>1</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:51">
+    <row r="160" spans="1:54">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -26527,16 +27967,16 @@
         <v>179</v>
       </c>
       <c r="C160" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D160" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E160" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F160" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G160">
         <v>100</v>
@@ -26673,8 +28113,17 @@
       <c r="AY160">
         <v>0</v>
       </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:51">
+    <row r="161" spans="1:54">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26682,16 +28131,16 @@
         <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D161" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E161" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F161" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G161">
         <v>99.73669434</v>
@@ -26828,8 +28277,17 @@
       <c r="AY161">
         <v>0</v>
       </c>
+      <c r="AZ161">
+        <v>1</v>
+      </c>
+      <c r="BA161">
+        <v>1</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:51">
+    <row r="162" spans="1:54">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26837,16 +28295,16 @@
         <v>183</v>
       </c>
       <c r="C162" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D162" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E162" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F162" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G162">
         <v>69.54782867</v>
@@ -26983,8 +28441,17 @@
       <c r="AY162">
         <v>1</v>
       </c>
+      <c r="AZ162">
+        <v>1</v>
+      </c>
+      <c r="BA162">
+        <v>1</v>
+      </c>
+      <c r="BB162">
+        <v>1</v>
+      </c>
     </row>
-    <row r="163" spans="1:51">
+    <row r="163" spans="1:54">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26992,16 +28459,16 @@
         <v>188</v>
       </c>
       <c r="C163" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D163" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E163" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F163" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G163">
         <v>100</v>
@@ -27138,8 +28605,17 @@
       <c r="AY163">
         <v>0</v>
       </c>
+      <c r="AZ163">
+        <v>1</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:51">
+    <row r="164" spans="1:54">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -27147,16 +28623,16 @@
         <v>189</v>
       </c>
       <c r="C164" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D164" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E164" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F164" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G164">
         <v>100</v>
@@ -27293,8 +28769,17 @@
       <c r="AY164">
         <v>0</v>
       </c>
+      <c r="AZ164">
+        <v>1</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:51">
+    <row r="165" spans="1:54">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -27302,16 +28787,16 @@
         <v>197</v>
       </c>
       <c r="C165" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D165" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E165" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F165" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G165">
         <v>100</v>
@@ -27448,8 +28933,17 @@
       <c r="AY165">
         <v>0</v>
       </c>
+      <c r="AZ165">
+        <v>1</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:51">
+    <row r="166" spans="1:54">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -27457,16 +28951,16 @@
         <v>201</v>
       </c>
       <c r="C166" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D166" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E166" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F166" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G166">
         <v>95.16445160000001</v>
@@ -27603,8 +29097,17 @@
       <c r="AY166">
         <v>0</v>
       </c>
+      <c r="AZ166">
+        <v>1</v>
+      </c>
+      <c r="BA166">
+        <v>1</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
     </row>
-    <row r="167" spans="1:51">
+    <row r="167" spans="1:54">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -27612,16 +29115,16 @@
         <v>205</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D167" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E167" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F167" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G167">
         <v>100</v>
@@ -27758,8 +29261,17 @@
       <c r="AY167">
         <v>0</v>
       </c>
+      <c r="AZ167">
+        <v>1</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:51">
+    <row r="168" spans="1:54">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27767,16 +29279,16 @@
         <v>206</v>
       </c>
       <c r="C168" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D168" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E168" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F168" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G168">
         <v>100</v>
@@ -27913,8 +29425,17 @@
       <c r="AY168">
         <v>0</v>
       </c>
+      <c r="AZ168">
+        <v>1</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:51">
+    <row r="169" spans="1:54">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27922,16 +29443,16 @@
         <v>207</v>
       </c>
       <c r="C169" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D169" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E169" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F169" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G169">
         <v>100</v>
@@ -28068,8 +29589,17 @@
       <c r="AY169">
         <v>0</v>
       </c>
+      <c r="AZ169">
+        <v>1</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:51">
+    <row r="170" spans="1:54">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -28077,16 +29607,16 @@
         <v>208</v>
       </c>
       <c r="C170" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D170" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E170" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F170" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G170">
         <v>99.657085</v>
@@ -28223,8 +29753,17 @@
       <c r="AY170">
         <v>0</v>
       </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:51">
+    <row r="171" spans="1:54">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -28232,16 +29771,16 @@
         <v>213</v>
       </c>
       <c r="C171" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D171" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E171" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F171" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G171">
         <v>100</v>
@@ -28378,8 +29917,17 @@
       <c r="AY171">
         <v>0</v>
       </c>
+      <c r="AZ171">
+        <v>1</v>
+      </c>
+      <c r="BA171">
+        <v>1</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:51">
+    <row r="172" spans="1:54">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -28387,16 +29935,16 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D172" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E172" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F172" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G172">
         <v>32</v>
@@ -28533,8 +30081,17 @@
       <c r="AY172">
         <v>0</v>
       </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>1</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:51">
+    <row r="173" spans="1:54">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -28542,16 +30099,16 @@
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D173" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E173" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F173" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G173">
         <v>62.4</v>
@@ -28688,8 +30245,17 @@
       <c r="AY173">
         <v>0</v>
       </c>
+      <c r="AZ173">
+        <v>1</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:51">
+    <row r="174" spans="1:54">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -28697,16 +30263,16 @@
         <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D174" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E174" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F174" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G174">
         <v>96.91264343</v>
@@ -28843,8 +30409,17 @@
       <c r="AY174">
         <v>0</v>
       </c>
+      <c r="AZ174">
+        <v>1</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:51">
+    <row r="175" spans="1:54">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -28852,16 +30427,16 @@
         <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D175" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E175" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F175" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G175">
         <v>90.038729</v>
@@ -28998,8 +30573,17 @@
       <c r="AY175">
         <v>0</v>
       </c>
+      <c r="AZ175">
+        <v>1</v>
+      </c>
+      <c r="BA175">
+        <v>1</v>
+      </c>
+      <c r="BB175">
+        <v>1</v>
+      </c>
     </row>
-    <row r="176" spans="1:51">
+    <row r="176" spans="1:54">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -29007,16 +30591,16 @@
         <v>33</v>
       </c>
       <c r="C176" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D176" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E176" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F176" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G176">
         <v>87.87672424</v>
@@ -29153,8 +30737,17 @@
       <c r="AY176">
         <v>0</v>
       </c>
+      <c r="AZ176">
+        <v>1</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:51">
+    <row r="177" spans="1:54">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -29162,16 +30755,16 @@
         <v>34</v>
       </c>
       <c r="C177" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D177" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E177" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F177" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G177">
         <v>56.1</v>
@@ -29308,8 +30901,17 @@
       <c r="AY177">
         <v>0</v>
       </c>
+      <c r="AZ177">
+        <v>1</v>
+      </c>
+      <c r="BA177">
+        <v>1</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:51">
+    <row r="178" spans="1:54">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -29317,16 +30919,16 @@
         <v>35</v>
       </c>
       <c r="C178" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D178" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E178" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F178" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G178">
         <v>56.8</v>
@@ -29463,8 +31065,17 @@
       <c r="AY178">
         <v>0</v>
       </c>
+      <c r="AZ178">
+        <v>1</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
     </row>
-    <row r="179" spans="1:51">
+    <row r="179" spans="1:54">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -29472,16 +31083,16 @@
         <v>45</v>
       </c>
       <c r="C179" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D179" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E179" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F179" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G179">
         <v>13.5</v>
@@ -29618,8 +31229,17 @@
       <c r="AY179">
         <v>0</v>
       </c>
+      <c r="AZ179">
+        <v>1</v>
+      </c>
+      <c r="BA179">
+        <v>1</v>
+      </c>
+      <c r="BB179">
+        <v>1</v>
+      </c>
     </row>
-    <row r="180" spans="1:51">
+    <row r="180" spans="1:54">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -29627,16 +31247,16 @@
         <v>48</v>
       </c>
       <c r="C180" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D180" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E180" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F180" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G180">
         <v>61.9</v>
@@ -29773,8 +31393,17 @@
       <c r="AY180">
         <v>0</v>
       </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>1</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:51">
+    <row r="181" spans="1:54">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -29782,16 +31411,16 @@
         <v>55</v>
       </c>
       <c r="C181" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D181" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E181" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F181" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G181">
         <v>52.26935959</v>
@@ -29928,8 +31557,17 @@
       <c r="AY181">
         <v>0</v>
       </c>
+      <c r="AZ181">
+        <v>1</v>
+      </c>
+      <c r="BA181">
+        <v>1</v>
+      </c>
+      <c r="BB181">
+        <v>1</v>
+      </c>
     </row>
-    <row r="182" spans="1:51">
+    <row r="182" spans="1:54">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -29937,16 +31575,16 @@
         <v>59</v>
       </c>
       <c r="C182" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D182" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E182" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F182" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G182">
         <v>99.8</v>
@@ -30083,8 +31721,17 @@
       <c r="AY182">
         <v>0</v>
       </c>
+      <c r="AZ182">
+        <v>1</v>
+      </c>
+      <c r="BA182">
+        <v>1</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:51">
+    <row r="183" spans="1:54">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -30092,16 +31739,16 @@
         <v>60</v>
       </c>
       <c r="C183" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D183" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E183" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F183" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G183">
         <v>95.125416</v>
@@ -30238,8 +31885,17 @@
       <c r="AY183">
         <v>0</v>
       </c>
+      <c r="AZ183">
+        <v>1</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:51">
+    <row r="184" spans="1:54">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -30247,16 +31903,16 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D184" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E184" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F184" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G184">
         <v>65</v>
@@ -30393,8 +32049,17 @@
       <c r="AY184">
         <v>0</v>
       </c>
+      <c r="AZ184">
+        <v>1</v>
+      </c>
+      <c r="BA184">
+        <v>1</v>
+      </c>
+      <c r="BB184">
+        <v>1</v>
+      </c>
     </row>
-    <row r="185" spans="1:51">
+    <row r="185" spans="1:54">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -30402,16 +32067,16 @@
         <v>72</v>
       </c>
       <c r="C185" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D185" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E185" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F185" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G185">
         <v>100</v>
@@ -30548,8 +32213,17 @@
       <c r="AY185">
         <v>0</v>
       </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:51">
+    <row r="186" spans="1:54">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -30557,16 +32231,16 @@
         <v>74</v>
       </c>
       <c r="C186" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D186" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E186" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F186" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G186">
         <v>78.3</v>
@@ -30703,8 +32377,17 @@
       <c r="AY186">
         <v>0</v>
       </c>
+      <c r="AZ186">
+        <v>1</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>1</v>
+      </c>
     </row>
-    <row r="187" spans="1:51">
+    <row r="187" spans="1:54">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -30712,16 +32395,16 @@
         <v>85</v>
       </c>
       <c r="C187" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D187" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E187" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F187" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G187">
         <v>88.653773</v>
@@ -30858,8 +32541,17 @@
       <c r="AY187">
         <v>0</v>
       </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:51">
+    <row r="188" spans="1:54">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -30867,16 +32559,16 @@
         <v>89</v>
       </c>
       <c r="C188" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D188" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E188" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F188" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G188">
         <v>81.23950958</v>
@@ -31013,8 +32705,17 @@
       <c r="AY188">
         <v>0</v>
       </c>
+      <c r="AZ188">
+        <v>1</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>1</v>
+      </c>
     </row>
-    <row r="189" spans="1:51">
+    <row r="189" spans="1:54">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -31022,16 +32723,16 @@
         <v>90</v>
       </c>
       <c r="C189" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D189" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E189" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F189" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G189">
         <v>97.01000000000001</v>
@@ -31168,8 +32869,17 @@
       <c r="AY189">
         <v>0</v>
       </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:51">
+    <row r="190" spans="1:54">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -31177,16 +32887,16 @@
         <v>101</v>
       </c>
       <c r="C190" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D190" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E190" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F190" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G190">
         <v>36</v>
@@ -31323,8 +33033,17 @@
       <c r="AY190">
         <v>0</v>
       </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:51">
+    <row r="191" spans="1:54">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -31332,16 +33051,16 @@
         <v>102</v>
       </c>
       <c r="C191" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D191" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E191" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F191" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G191">
         <v>80.71501923</v>
@@ -31478,8 +33197,17 @@
       <c r="AY191">
         <v>0</v>
       </c>
+      <c r="AZ191">
+        <v>1</v>
+      </c>
+      <c r="BA191">
+        <v>1</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:51">
+    <row r="192" spans="1:54">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -31487,16 +33215,16 @@
         <v>105</v>
       </c>
       <c r="C192" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D192" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E192" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F192" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G192">
         <v>99.99313354</v>
@@ -31633,8 +33361,17 @@
       <c r="AY192">
         <v>1</v>
       </c>
+      <c r="AZ192">
+        <v>1</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>1</v>
+      </c>
     </row>
-    <row r="193" spans="1:51">
+    <row r="193" spans="1:54">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -31642,16 +33379,16 @@
         <v>107</v>
       </c>
       <c r="C193" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D193" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E193" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F193" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G193">
         <v>99.8</v>
@@ -31788,8 +33525,17 @@
       <c r="AY193">
         <v>0</v>
       </c>
+      <c r="AZ193">
+        <v>1</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:51">
+    <row r="194" spans="1:54">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -31797,16 +33543,16 @@
         <v>108</v>
       </c>
       <c r="C194" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D194" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E194" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F194" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G194">
         <v>81.45786285</v>
@@ -31943,8 +33689,17 @@
       <c r="AY194">
         <v>0</v>
       </c>
+      <c r="AZ194">
+        <v>1</v>
+      </c>
+      <c r="BA194">
+        <v>1</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:51">
+    <row r="195" spans="1:54">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -31952,16 +33707,16 @@
         <v>111</v>
       </c>
       <c r="C195" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D195" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E195" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F195" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G195">
         <v>27.8</v>
@@ -32098,8 +33853,17 @@
       <c r="AY195">
         <v>0</v>
       </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>1</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:51">
+    <row r="196" spans="1:54">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -32107,16 +33871,16 @@
         <v>126</v>
       </c>
       <c r="C196" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D196" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E196" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F196" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G196">
         <v>38.8</v>
@@ -32253,8 +34017,17 @@
       <c r="AY196">
         <v>0</v>
       </c>
+      <c r="AZ196">
+        <v>1</v>
+      </c>
+      <c r="BA196">
+        <v>1</v>
+      </c>
+      <c r="BB196">
+        <v>1</v>
+      </c>
     </row>
-    <row r="197" spans="1:51">
+    <row r="197" spans="1:54">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -32262,16 +34035,16 @@
         <v>129</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D197" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E197" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F197" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G197">
         <v>71.67379760999999</v>
@@ -32408,8 +34181,17 @@
       <c r="AY197">
         <v>0</v>
       </c>
+      <c r="AZ197">
+        <v>1</v>
+      </c>
+      <c r="BA197">
+        <v>1</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:51">
+    <row r="198" spans="1:54">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -32417,16 +34199,16 @@
         <v>130</v>
       </c>
       <c r="C198" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D198" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E198" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F198" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G198">
         <v>100</v>
@@ -32563,8 +34345,17 @@
       <c r="AY198">
         <v>0</v>
       </c>
+      <c r="AZ198">
+        <v>1</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:51">
+    <row r="199" spans="1:54">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -32572,16 +34363,16 @@
         <v>132</v>
       </c>
       <c r="C199" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D199" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E199" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F199" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G199">
         <v>80.60873413</v>
@@ -32718,8 +34509,17 @@
       <c r="AY199">
         <v>0</v>
       </c>
+      <c r="AZ199">
+        <v>1</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:51">
+    <row r="200" spans="1:54">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -32727,16 +34527,16 @@
         <v>134</v>
       </c>
       <c r="C200" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D200" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E200" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F200" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G200">
         <v>91.59999999999999</v>
@@ -32873,8 +34673,17 @@
       <c r="AY200">
         <v>0</v>
       </c>
+      <c r="AZ200">
+        <v>1</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>1</v>
+      </c>
     </row>
-    <row r="201" spans="1:51">
+    <row r="201" spans="1:54">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -32882,16 +34691,16 @@
         <v>136</v>
       </c>
       <c r="C201" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D201" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E201" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F201" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G201">
         <v>52</v>
@@ -33028,8 +34837,17 @@
       <c r="AY201">
         <v>0</v>
       </c>
+      <c r="AZ201">
+        <v>1</v>
+      </c>
+      <c r="BA201">
+        <v>0</v>
+      </c>
+      <c r="BB201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:51">
+    <row r="202" spans="1:54">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -33037,16 +34855,16 @@
         <v>143</v>
       </c>
       <c r="C202" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D202" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E202" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F202" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G202">
         <v>81.85307299999999</v>
@@ -33183,8 +35001,17 @@
       <c r="AY202">
         <v>0</v>
       </c>
+      <c r="AZ202">
+        <v>1</v>
+      </c>
+      <c r="BA202">
+        <v>1</v>
+      </c>
+      <c r="BB202">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:51">
+    <row r="203" spans="1:54">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -33192,16 +35019,16 @@
         <v>145</v>
       </c>
       <c r="C203" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D203" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E203" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F203" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G203">
         <v>56.37191391</v>
@@ -33338,8 +35165,17 @@
       <c r="AY203">
         <v>0</v>
       </c>
+      <c r="AZ203">
+        <v>1</v>
+      </c>
+      <c r="BA203">
+        <v>1</v>
+      </c>
+      <c r="BB203">
+        <v>1</v>
+      </c>
     </row>
-    <row r="204" spans="1:51">
+    <row r="204" spans="1:54">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -33347,16 +35183,16 @@
         <v>149</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D204" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E204" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F204" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G204">
         <v>96.01585387999999</v>
@@ -33493,8 +35329,17 @@
       <c r="AY204">
         <v>0</v>
       </c>
+      <c r="AZ204">
+        <v>0</v>
+      </c>
+      <c r="BA204">
+        <v>1</v>
+      </c>
+      <c r="BB204">
+        <v>1</v>
+      </c>
     </row>
-    <row r="205" spans="1:51">
+    <row r="205" spans="1:54">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -33502,16 +35347,16 @@
         <v>152</v>
       </c>
       <c r="C205" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D205" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E205" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F205" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G205">
         <v>21.44621468</v>
@@ -33648,8 +35493,17 @@
       <c r="AY205">
         <v>0</v>
       </c>
+      <c r="AZ205">
+        <v>1</v>
+      </c>
+      <c r="BA205">
+        <v>1</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:51">
+    <row r="206" spans="1:54">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -33657,16 +35511,16 @@
         <v>155</v>
       </c>
       <c r="C206" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E206" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F206" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G206">
         <v>88.64569855000001</v>
@@ -33803,8 +35657,17 @@
       <c r="AY206">
         <v>0</v>
       </c>
+      <c r="AZ206">
+        <v>1</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:51">
+    <row r="207" spans="1:54">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -33812,16 +35675,16 @@
         <v>165</v>
       </c>
       <c r="C207" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D207" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E207" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F207" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G207">
         <v>68.59999999999999</v>
@@ -33958,8 +35821,17 @@
       <c r="AY207">
         <v>0</v>
       </c>
+      <c r="AZ207">
+        <v>1</v>
+      </c>
+      <c r="BA207">
+        <v>1</v>
+      </c>
+      <c r="BB207">
+        <v>1</v>
+      </c>
     </row>
-    <row r="208" spans="1:51">
+    <row r="208" spans="1:54">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -33967,16 +35839,16 @@
         <v>175</v>
       </c>
       <c r="C208" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D208" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E208" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F208" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G208">
         <v>42.60435486</v>
@@ -34113,8 +35985,17 @@
       <c r="AY208">
         <v>0</v>
       </c>
+      <c r="AZ208">
+        <v>1</v>
+      </c>
+      <c r="BA208">
+        <v>1</v>
+      </c>
+      <c r="BB208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:51">
+    <row r="209" spans="1:54">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -34122,16 +36003,16 @@
         <v>180</v>
       </c>
       <c r="C209" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D209" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E209" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F209" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G209">
         <v>92.19206238</v>
@@ -34268,8 +36149,17 @@
       <c r="AY209">
         <v>0</v>
       </c>
+      <c r="AZ209">
+        <v>1</v>
+      </c>
+      <c r="BA209">
+        <v>1</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:51">
+    <row r="210" spans="1:54">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -34277,16 +36167,16 @@
         <v>185</v>
       </c>
       <c r="C210" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D210" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E210" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F210" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G210">
         <v>44.9</v>
@@ -34423,8 +36313,17 @@
       <c r="AY210">
         <v>0</v>
       </c>
+      <c r="AZ210">
+        <v>1</v>
+      </c>
+      <c r="BA210">
+        <v>1</v>
+      </c>
+      <c r="BB210">
+        <v>1</v>
+      </c>
     </row>
-    <row r="211" spans="1:51">
+    <row r="211" spans="1:54">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -34432,16 +36331,16 @@
         <v>194</v>
       </c>
       <c r="C211" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D211" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E211" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F211" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G211">
         <v>57.77819824</v>
@@ -34578,8 +36477,17 @@
       <c r="AY211">
         <v>0</v>
       </c>
+      <c r="AZ211">
+        <v>1</v>
+      </c>
+      <c r="BA211">
+        <v>1</v>
+      </c>
+      <c r="BB211">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:51">
+    <row r="212" spans="1:54">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -34587,16 +36495,16 @@
         <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D212" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E212" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F212" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G212">
         <v>99.8</v>
@@ -34733,8 +36641,17 @@
       <c r="AY212">
         <v>0</v>
       </c>
+      <c r="AZ212">
+        <v>0</v>
+      </c>
+      <c r="BA212">
+        <v>1</v>
+      </c>
+      <c r="BB212">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="1:51">
+    <row r="213" spans="1:54">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -34742,16 +36659,16 @@
         <v>204</v>
       </c>
       <c r="C213" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D213" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E213" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F213" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G213">
         <v>100</v>
@@ -34888,8 +36805,17 @@
       <c r="AY213">
         <v>0</v>
       </c>
+      <c r="AZ213">
+        <v>1</v>
+      </c>
+      <c r="BA213">
+        <v>1</v>
+      </c>
+      <c r="BB213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:51">
+    <row r="214" spans="1:54">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -34897,16 +36823,16 @@
         <v>209</v>
       </c>
       <c r="C214" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D214" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E214" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F214" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G214">
         <v>100</v>
@@ -35043,8 +36969,17 @@
       <c r="AY214">
         <v>0</v>
       </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>1</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:51">
+    <row r="215" spans="1:54">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -35052,16 +36987,16 @@
         <v>210</v>
       </c>
       <c r="C215" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D215" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E215" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F215" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G215">
         <v>43.10334778</v>
@@ -35198,8 +37133,17 @@
       <c r="AY215">
         <v>0</v>
       </c>
+      <c r="AZ215">
+        <v>1</v>
+      </c>
+      <c r="BA215">
+        <v>1</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:51">
+    <row r="216" spans="1:54">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -35207,16 +37151,16 @@
         <v>212</v>
       </c>
       <c r="C216" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D216" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E216" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F216" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G216">
         <v>99.2</v>
@@ -35353,8 +37297,17 @@
       <c r="AY216">
         <v>0</v>
       </c>
+      <c r="AZ216">
+        <v>1</v>
+      </c>
+      <c r="BA216">
+        <v>1</v>
+      </c>
+      <c r="BB216">
+        <v>1</v>
+      </c>
     </row>
-    <row r="217" spans="1:51">
+    <row r="217" spans="1:54">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -35362,16 +37315,16 @@
         <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E217" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F217" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G217">
         <v>99.90000000000001</v>
@@ -35508,8 +37461,17 @@
       <c r="AY217">
         <v>0</v>
       </c>
+      <c r="AZ217">
+        <v>0</v>
+      </c>
+      <c r="BA217">
+        <v>1</v>
+      </c>
+      <c r="BB217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:51">
+    <row r="218" spans="1:54">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -35517,16 +37479,16 @@
         <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D218" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E218" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F218" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G218">
         <v>27.9</v>
@@ -35661,6 +37623,15 @@
         <v>0</v>
       </c>
       <c r="AY218">
+        <v>0</v>
+      </c>
+      <c r="AZ218">
+        <v>1</v>
+      </c>
+      <c r="BA218">
+        <v>1</v>
+      </c>
+      <c r="BB218">
         <v>0</v>
       </c>
     </row>
